--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,42 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-01-19T18:33:15.560676+00:00</t>
+          <t>2026-01-19T19:53:48.523191+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>588b3771-b6bc-4281-a305-69592d89bde2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>naruto@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>$2b$12$DCLvK/O1ugMj4kfNsQym6uAa1oaJfryLy5HleUkceALfbWWDE8Y/6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2026-01-19T19:54:51.060431+00:00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2026-01-19T19:55:53.809692+00:00</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-01-19T19:55:53.809692+00:00</t>
+          <t>2026-01-20T20:43:12.661636+00:00</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-01-20T20:43:12.661636+00:00</t>
+          <t>2026-01-20T22:02:51.514231+00:00</t>
         </is>
       </c>
     </row>
